--- a/DateBase/orders/Dang Nguyen_2025-10-30.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-30.xlsx
@@ -523,6 +523,9 @@
       <c r="C11" t="str">
         <v>436_木百合_leucadendron _undefined_1bunch</v>
       </c>
+      <c r="F11" t="str">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -584,7 +587,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0202020155201530150</v>
+        <v>02020201552015301515</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-30.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-30.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,9 +527,92 @@
         <v>15</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F12" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>3</v>
+      </c>
+      <c r="C13" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F14" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>152_白荔枝_White Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F15" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F16" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>317_尤加利叶细叶_Eucalyptus Parvifolia_undefined_1bunch</v>
+      </c>
+      <c r="F17" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>4</v>
+      </c>
+      <c r="C18" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F18" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F19" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>201_美琴_Mikoto_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F20" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -587,7 +670,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02020201552015301515</v>
+        <v>02020201552015301515201516101101614120</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-30.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-30.xlsx
@@ -609,6 +609,9 @@
       <c r="C21" t="str">
         <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F21" t="str">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -670,7 +673,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02020201552015301515201516101101614120</v>
+        <v>02020201552015301515201516101101614122</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-30.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-30.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -613,9 +613,92 @@
         <v>2</v>
       </c>
     </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>611_康乃馨奶油白_cream white_undefined_20stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>613_康乃馨粉末_undefined_undefined_20stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>5</v>
+      </c>
+      <c r="C25" t="str">
+        <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F27" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F28" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
+      </c>
+      <c r="F29" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>608_康乃馨笑颜_undefined_undefined_20stems</v>
+      </c>
+      <c r="F30" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>603_康乃馨粉钻_darkpink_undefined_20stems</v>
+      </c>
+      <c r="F31" t="str">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -673,7 +756,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02020201552015301515201516101101614122</v>
+        <v>0202020155201530151520151610110161412255551636101010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-30.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-30.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -696,9 +696,89 @@
         <v>10</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>605_康乃馨流光粉_light pink_undefined_20stems</v>
+      </c>
+      <c r="F32" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>6</v>
+      </c>
+      <c r="C33" t="str">
+        <v>43_拉丝红_Spider Red_Gerbera L._20stems</v>
+      </c>
+      <c r="F33" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>44_拉丝粉_Spider Pink_Gerbera L._20stems</v>
+      </c>
+      <c r="F34" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
+      </c>
+      <c r="F35" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>77_珍爱mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F36" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>46_拉丝橙_Spider orange_Gerbera L._20stems</v>
+      </c>
+      <c r="F37" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>78_玉镜_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F38" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -756,7 +836,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0202020155201530151520151610110161412255551636101010</v>
+        <v>020202015520153015152015161011016141225555163610101010871010101010150</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-30.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-30.xlsx
@@ -775,6 +775,9 @@
       <c r="C41" t="str">
         <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
       </c>
+      <c r="F41" t="str">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -836,7 +839,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020202015520153015152015161011016141225555163610101010871010101010150</v>
+        <v>0202020155201530151520151610110161412255551636101010108710101010101515</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-30.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-30.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -768,20 +768,74 @@
         <v>586_洋牡丹白_undefined_undefined_1bunch</v>
       </c>
       <c r="F40" t="str">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41">
       <c r="C41" t="str">
-        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
+        <v>818_八卦草_undefined_undefined_1bunch</v>
       </c>
       <c r="F41" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
         <v>15</v>
+      </c>
+    </row>
+    <row r="43" xml:space="preserve">
+      <c r="C43" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" xml:space="preserve">
+      <c r="A44" t="str">
+        <v>7</v>
+      </c>
+      <c r="C44" t="str" xml:space="preserve">
+        <v xml:space="preserve">416_翠珠紫_Didiscus caeruleus
+blue_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" xml:space="preserve">
+      <c r="C45" t="str" xml:space="preserve">
+        <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
+pink_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>643_巧克力秋英_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>594_绿毛球_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L47"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -839,7 +893,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0202020155201530151520151610110161412255551636101010108710101010101515</v>
+        <v>0202020155201530151520151610110161412255551636101010108710101010108010152010101020</v>
       </c>
     </row>
   </sheetData>
